--- a/GoPack Board Rev A/GoPack Parts List.xlsx
+++ b/GoPack Board Rev A/GoPack Parts List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Item</t>
   </si>
@@ -76,9 +76,6 @@
     <t>RGB LED</t>
   </si>
   <si>
-    <t>Supply screw clamp</t>
-  </si>
-  <si>
     <t>0603 0.47 uF capacitor</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t>PCB (x3 with shipping)</t>
+  </si>
+  <si>
+    <t>2x1 Screw clamp terminal</t>
+  </si>
+  <si>
+    <t>Based on cut-tape packaging, ~100 qty price break for most passives</t>
   </si>
 </sst>
 </file>
@@ -367,9 +370,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +415,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -566,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -597,15 +608,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -908,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,19 +939,20 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -946,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>6</v>
@@ -963,7 +979,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -975,7 +991,7 @@
       <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>36.799999999999997</v>
       </c>
       <c r="G3" s="28">
@@ -985,25 +1001,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="18">
         <v>3</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>2.4380000000000002</v>
       </c>
       <c r="G4" s="29">
-        <f>F4*E4</f>
+        <f t="shared" ref="G4:G37" si="0">F4*E4</f>
         <v>7.3140000000000001</v>
       </c>
     </row>
@@ -1015,43 +1031,43 @@
         <v>4</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>0.85099999999999998</v>
       </c>
       <c r="G5" s="29">
-        <f>F5*E5</f>
+        <f t="shared" si="0"/>
         <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>0.85099999999999998</v>
       </c>
       <c r="G6" s="29">
-        <f>F6*E6</f>
+        <f t="shared" si="0"/>
         <v>0.85099999999999998</v>
       </c>
     </row>
@@ -1066,16 +1082,16 @@
         <v>11</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>5.13</v>
       </c>
       <c r="G7" s="29">
-        <f>F7*E7</f>
+        <f t="shared" si="0"/>
         <v>5.13</v>
       </c>
     </row>
@@ -1087,19 +1103,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>2.3340000000000001</v>
       </c>
       <c r="G8" s="29">
-        <f>F8*E8</f>
+        <f t="shared" si="0"/>
         <v>2.3340000000000001</v>
       </c>
     </row>
@@ -1111,19 +1127,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.92700000000000005</v>
       </c>
       <c r="G9" s="29">
-        <f>F9*E9</f>
+        <f t="shared" si="0"/>
         <v>0.92700000000000005</v>
       </c>
     </row>
@@ -1135,19 +1151,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>0.92700000000000005</v>
       </c>
       <c r="G10" s="29">
-        <f>F10*E10</f>
+        <f t="shared" si="0"/>
         <v>0.92700000000000005</v>
       </c>
     </row>
@@ -1159,19 +1175,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="18">
         <v>1</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>0.93</v>
       </c>
       <c r="G11" s="29">
-        <f>F11*E11</f>
+        <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
     </row>
@@ -1183,19 +1199,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>0.33900000000000002</v>
       </c>
       <c r="G12" s="29">
-        <f>F12*E12</f>
+        <f t="shared" si="0"/>
         <v>0.33900000000000002</v>
       </c>
     </row>
@@ -1207,19 +1223,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>0.21099999999999999</v>
       </c>
       <c r="G13" s="29">
-        <f>F13*E13</f>
+        <f t="shared" si="0"/>
         <v>0.21099999999999999</v>
       </c>
     </row>
@@ -1231,19 +1247,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>0.19500000000000001</v>
       </c>
       <c r="G14" s="29">
-        <f>F14*E14</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
     </row>
@@ -1255,546 +1271,546 @@
         <v>4</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>0.42399999999999999</v>
       </c>
       <c r="G15" s="29">
-        <f>F15*E15</f>
+        <f t="shared" si="0"/>
         <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="G16" s="29">
-        <f>F16*E16</f>
+        <f t="shared" si="0"/>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="18">
         <v>3</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="G17" s="29">
-        <f>F17*E17</f>
+        <f t="shared" si="0"/>
         <v>0.17280000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="21">
         <v>1</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="G18" s="29">
-        <f>F18*E18</f>
+        <f t="shared" si="0"/>
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="21">
         <v>3</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="G19" s="29">
-        <f>F19*E19</f>
+        <f t="shared" si="0"/>
         <v>0.2268</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="21">
         <v>2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G20" s="29">
-        <f>F20*E20</f>
+        <f t="shared" si="0"/>
         <v>0.158</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="21">
         <v>1</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>0.71899999999999997</v>
       </c>
       <c r="G21" s="29">
-        <f>F21*E21</f>
+        <f t="shared" si="0"/>
         <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="21">
         <v>2</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>1.24</v>
       </c>
       <c r="G22" s="29">
-        <f>F22*E22</f>
+        <f t="shared" si="0"/>
         <v>2.48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="21">
         <v>2</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="G23" s="29">
-        <f>F23*E23</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="21">
         <v>2</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G24" s="29">
-        <f>F24*E24</f>
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="E25" s="21">
         <v>1</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G25" s="29">
-        <f>F25*E25</f>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="21">
         <v>1</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G26" s="29">
-        <f>F26*E26</f>
+        <f t="shared" si="0"/>
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="21">
         <v>1</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <v>0.27600000000000002</v>
       </c>
       <c r="G27" s="29">
-        <f>F27*E27</f>
+        <f t="shared" si="0"/>
         <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="21">
         <v>1</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G28" s="29">
-        <f>F28*E28</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="21">
         <v>1</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <v>1.09E-2</v>
       </c>
       <c r="G29" s="29">
-        <f>F29*E29</f>
+        <f t="shared" si="0"/>
         <v>1.09E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="G30" s="29">
-        <f>F30*E30</f>
+        <f t="shared" si="0"/>
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="18">
         <v>6</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <v>1.1388</v>
       </c>
       <c r="G31" s="29">
-        <f>F31*E31</f>
+        <f t="shared" si="0"/>
         <v>6.8328000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="18">
         <v>4</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>0.82799999999999996</v>
       </c>
       <c r="G32" s="29">
-        <f>F32*E32</f>
+        <f t="shared" si="0"/>
         <v>3.3119999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="E33" s="18">
         <v>1</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>1.3160000000000001</v>
       </c>
       <c r="G33" s="29">
-        <f>F33*E33</f>
+        <f t="shared" si="0"/>
         <v>1.3160000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="E34" s="18">
         <v>1</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>0.74</v>
       </c>
       <c r="G34" s="29">
-        <f>F34*E34</f>
+        <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>2.73</v>
       </c>
       <c r="G35" s="29">
-        <f>F35*E35</f>
+        <f t="shared" si="0"/>
         <v>2.73</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="E36" s="18">
         <v>1</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>1.6</v>
       </c>
       <c r="G36" s="29">
-        <f>F36*E36</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="J36" s="36"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="E37" s="18">
         <v>2</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <v>0.27300000000000002</v>
       </c>
       <c r="G37" s="29">
-        <f>F37*E37</f>
+        <f t="shared" si="0"/>
         <v>0.54600000000000004</v>
       </c>
     </row>
@@ -1802,14 +1818,19 @@
       <c r="F38" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="34">
         <f>SUM(G3:G37)</f>
         <v>53.921266666666661</v>
       </c>
     </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
